--- a/excel/Assignment-1 (Udanous_) (Recovered).xlsx
+++ b/excel/Assignment-1 (Udanous_) (Recovered).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -2001,8 +2001,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A363" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H275" sqref="H275"/>
+    <sheetView showGridLines="0" topLeftCell="A363" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,8 +2165,8 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="4">
-        <f>COUNTIF(C3:C12,"&gt;100")</f>
-        <v>4</v>
+        <f>COUNTIF(C3:C12,"&gt;=100")</f>
+        <v>5</v>
       </c>
       <c r="F16" s="34"/>
     </row>
@@ -2203,8 +2203,8 @@
         <v>2</v>
       </c>
       <c r="B26" s="4">
-        <f>MONTH(B23)</f>
-        <v>3</v>
+        <f ca="1">DATEDIF(B23,TODAY(),"M")</f>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2213,11 +2213,11 @@
       </c>
       <c r="B27" s="4">
         <f ca="1">DATEDIF(B23,TODAY(),"D")</f>
-        <v>13906</v>
+        <v>13907</v>
       </c>
       <c r="C27" s="6">
         <f ca="1">DATEDIF(B23, TODAY(), "YD")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2428,8 +2428,8 @@
         <v>3</v>
       </c>
       <c r="D54" s="4">
-        <f>COUNT(D45:D53)</f>
-        <v>6</v>
+        <f>ROWS(D45:D53)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B81" s="7">
         <f ca="1">DATEDIF(B75,TODAY(),"D")</f>
-        <v>13657</v>
+        <v>13658</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B341" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B6" s="7" t="str">
         <f ca="1">DATEDIF(A6,TODAY(),"Y")&amp;" Years "&amp;DATEDIF(A6,TODAY(),"YD")&amp;" Days "</f>
-        <v xml:space="preserve">23 Years 69 Days </v>
+        <v xml:space="preserve">23 Years 70 Days </v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B18" ca="1" si="0">DATEDIF(A7,TODAY(),"Y")&amp;" Years "&amp;DATEDIF(A7,TODAY(),"YD")&amp;" Days "</f>
-        <v xml:space="preserve">23 Years 169 Days </v>
+        <v xml:space="preserve">23 Years 170 Days </v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">23 Years 269 Days </v>
+        <v xml:space="preserve">23 Years 270 Days </v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">23 Years 36 Days </v>
+        <v xml:space="preserve">23 Years 37 Days </v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="B10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">22 Years 168 Days </v>
+        <v xml:space="preserve">22 Years 169 Days </v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">21 Years 301 Days </v>
+        <v xml:space="preserve">21 Years 302 Days </v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">21 Years 68 Days </v>
+        <v xml:space="preserve">21 Years 69 Days </v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">20 Years 200 Days </v>
+        <v xml:space="preserve">20 Years 201 Days </v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">19 Years 332 Days </v>
+        <v xml:space="preserve">19 Years 333 Days </v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">19 Years 99 Days </v>
+        <v xml:space="preserve">19 Years 100 Days </v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">18 Years 231 Days </v>
+        <v xml:space="preserve">18 Years 232 Days </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">17 Years 364 Days </v>
+        <v xml:space="preserve">17 Years 365 Days </v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="B18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">17 Years 131 Days </v>
+        <v xml:space="preserve">17 Years 132 Days </v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7869,8 +7869,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7927,14 +7927,38 @@
       <c r="B2" s="8">
         <v>30386</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"Y")</f>
+        <v>42</v>
+      </c>
+      <c r="D2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"M")</f>
+        <v>505</v>
+      </c>
+      <c r="E2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"D")</f>
+        <v>15373</v>
+      </c>
+      <c r="F2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"YM")</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"MD")</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <f ca="1">DATEDIF(B2,TODAY(),"YD")</f>
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f ca="1">CONCATENATE(C2," Years"," ",G2," ","Days")</f>
+        <v>42 Years 1 Days</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f ca="1">CONCATENATE(C2," Years"," ",F2," Months"," ",G2," Days")</f>
+        <v>42 Years 1 Months 1 Days</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -7944,311 +7968,743 @@
       <c r="B3" s="8">
         <v>30686</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C20" ca="1" si="0">DATEDIF(B3,TODAY(),"Y")</f>
+        <v>41</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D20" ca="1" si="1">DATEDIF(B3,TODAY(),"M")</f>
+        <v>495</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E20" ca="1" si="2">DATEDIF(B3,TODAY(),"D")</f>
+        <v>15073</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F20" ca="1" si="3">DATEDIF(B3,TODAY(),"YM")</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G20" ca="1" si="4">DATEDIF(B3,TODAY(),"MD")</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H20" ca="1" si="5">DATEDIF(B3,TODAY(),"YD")</f>
+        <v>98</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f t="shared" ref="I3:I20" ca="1" si="6">CONCATENATE(C3," Years"," ",G3," ","Days")</f>
+        <v>41 Years 7 Days</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f t="shared" ref="J3:J20" ca="1" si="7">CONCATENATE(C3," Years"," ",F3," Months"," ",G3," Days")</f>
+        <v>41 Years 3 Months 7 Days</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A20" si="0">A3+1</f>
+        <f t="shared" ref="A4:A20" si="8">A3+1</f>
         <v>30017</v>
       </c>
       <c r="B4" s="8">
         <v>30986</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="C4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14773</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>40 Years 12 Days</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>40 Years 5 Months 12 Days</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30018</v>
       </c>
       <c r="B5" s="8">
         <v>31286</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14473</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>39 Years 16 Days</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>39 Years 7 Months 16 Days</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30019</v>
       </c>
       <c r="B6" s="8">
         <v>31586</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14173</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>293</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>38 Years 20 Days</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>38 Years 9 Months 20 Days</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30020</v>
       </c>
       <c r="B7" s="8">
         <v>31886</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="C7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13873</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>37 Years 24 Days</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>37 Years 11 Months 24 Days</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30021</v>
       </c>
       <c r="B8" s="8">
         <v>32186</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13573</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>37 Years 30 Days</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>37 Years 1 Months 30 Days</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30022</v>
       </c>
       <c r="B9" s="8">
         <v>32486</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13273</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>36 Years 3 Days</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>36 Years 4 Months 3 Days</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30023</v>
       </c>
       <c r="B10" s="8">
         <v>32786</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12973</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>35 Years 7 Days</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>35 Years 6 Months 7 Days</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30024</v>
       </c>
       <c r="B11" s="8">
         <v>33086</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12673</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>254</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>34 Years 11 Days</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>34 Years 8 Months 11 Days</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30025</v>
       </c>
       <c r="B12" s="8">
         <v>33386</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="C12" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12373</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>33 Years 15 Days</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>33 Years 10 Months 15 Days</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30026</v>
       </c>
       <c r="B13" s="8">
         <f>B12-350</f>
         <v>33036</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12723</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>34 Years 0 Days</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>34 Years 10 Months 0 Days</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30027</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" ref="B14:B20" si="1">B13-350</f>
+        <f t="shared" ref="B14:B20" si="9">B13-350</f>
         <v>32686</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="C14" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13073</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>289</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>35 Years 16 Days</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>35 Years 9 Months 16 Days</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30028</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>32336</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="C15" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13423</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>36 Years 0 Days</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>36 Years 9 Months 0 Days</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30029</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>31986</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="C16" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>452</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>13773</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>37 Years 15 Days</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>37 Years 8 Months 15 Days</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30030</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>31636</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="C17" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14123</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>38 Years 0 Days</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>38 Years 8 Months 0 Days</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30031</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>31286</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="C18" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14473</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>39 Years 16 Days</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>39 Years 7 Months 16 Days</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30032</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>30936</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="C19" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>14823</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>40 Years 1 Days</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>40 Years 7 Months 1 Days</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30033</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>30586</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="C20" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>15173</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>41 Years 16 Days</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>41 Years 6 Months 16 Days</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
